--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46392FD4-5A9D-4E66-AABA-6BDE1DDFDBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,22 +416,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>by eric 2021.11.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PerfCnt</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>AdjPerfCnt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>PieceCode</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -442,10 +429,6 @@
   </si>
   <si>
     <t>WorkMonth</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BsOfficer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -489,11 +472,31 @@
 4:人工增減業績</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>ProdCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BsOfficer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfCnt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用(移至房貸專員業績調整檔)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用(移至房貸專員業績調整檔)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -797,7 +800,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,23 +891,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -940,23 +926,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1132,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1299,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1378,7 +1347,7 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1387,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>68</v>
@@ -1447,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>72</v>
@@ -1468,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>73</v>
@@ -1487,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>78</v>
@@ -1511,10 +1480,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>22</v>
@@ -1526,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1556,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>97</v>
@@ -1571,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1595,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1604,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>74</v>
@@ -1719,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1838,7 +1807,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>91</v>
@@ -1868,13 +1837,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -401,10 +401,6 @@
   </si>
   <si>
     <t>AdjPerfAmt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>業績金額</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -438,16 +434,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>追回時為扣除金額後重算之件數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findByTxFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>件數</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員業績明細檔</t>
@@ -485,11 +473,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>未用(移至房貸專員業績調整檔)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未用(移至房貸專員業績調整檔)</t>
+    <t>件數</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後件數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績金額</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後業績金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1104,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1124,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1268,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1347,7 +1343,7 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1356,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>68</v>
@@ -1416,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>72</v>
@@ -1437,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>73</v>
@@ -1456,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>78</v>
@@ -1480,10 +1476,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>22</v>
@@ -1495,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1507,7 +1503,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>22</v>
@@ -1517,6 +1513,9 @@
       </c>
       <c r="F22" s="16">
         <v>2</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1525,10 +1524,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>22</v>
@@ -1539,9 +1538,7 @@
       <c r="F23" s="37">
         <v>1</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>115</v>
-      </c>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
@@ -1552,7 +1549,7 @@
         <v>95</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>22</v>
@@ -1563,9 +1560,7 @@
       <c r="F24" s="37">
         <v>2</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>116</v>
-      </c>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
@@ -1573,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>74</v>
@@ -1807,7 +1802,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>91</v>
@@ -1837,13 +1832,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9BF55-C8F2-44CA-A31A-27CEAA121893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -488,11 +480,19 @@
     <t>調整後業績金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>findBormNoFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfDate ASC ,LogNo ASC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -663,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,10 +679,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -694,9 +694,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -708,9 +705,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,7 +790,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,9 +806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,9 +846,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1097,29 +1091,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.109375" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1131,82 +1125,82 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1225,444 +1219,444 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="27">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>8</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="27">
         <f t="shared" ref="A11:A30" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>7</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>6</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>6</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="A17" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>5</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>1</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>16</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>2</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>5</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="A22" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>16</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <v>5</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <v>1</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="34">
         <v>16</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="35">
         <v>2</v>
       </c>
-      <c r="G24" s="38"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="A25" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
+      <c r="A27" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
+      <c r="A28" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+      <c r="A29" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
+      <c r="A30" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>6</v>
       </c>
     </row>
@@ -1683,12 +1677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1804,7 +1798,7 @@
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1834,11 +1828,22 @@
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9BF55-C8F2-44CA-A31A-27CEAA121893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F1A60-67BC-4639-9D0A-CA1DD7F98218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -487,6 +483,9 @@
   <si>
     <t>PerfDate ASC ,LogNo ASC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1117,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1143,7 +1142,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1228,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>81</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1246,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>26</v>
@@ -1258,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,10 +1266,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>22</v>
@@ -1324,20 +1323,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1346,13 +1345,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="21">
         <v>6</v>
@@ -1367,19 +1366,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="21">
         <v>6</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1391,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>26</v>
@@ -1406,13 +1405,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="21">
         <v>5</v>
@@ -1427,13 +1426,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="21">
         <v>1</v>
@@ -1446,10 +1445,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>22</v>
@@ -1461,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1470,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>22</v>
@@ -1485,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1494,10 +1493,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>22</v>
@@ -1509,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1518,10 +1517,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>22</v>
@@ -1540,10 +1539,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>22</v>
@@ -1562,10 +1561,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>22</v>
@@ -1583,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>22</v>
@@ -1604,7 +1603,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="E27" s="21"/>
     </row>
@@ -1614,13 +1613,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="E28" s="21">
         <v>6</v>
@@ -1632,13 +1631,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>40</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="E29" s="21"/>
     </row>
@@ -1648,13 +1647,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="21">
         <v>6</v>
@@ -1680,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -1706,144 +1705,144 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
